--- a/StoreManagement.Website/Resource/ImportedTemplate/Customers.xlsx
+++ b/StoreManagement.Website/Resource/ImportedTemplate/Customers.xlsx
@@ -2,22 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="17610" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DataImport" sheetId="1" r:id="rId1"/>
-    <sheet name="ProductGroups" sheetId="2" r:id="rId2"/>
-    <sheet name="Producers" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ListProducerNames">Producers!$A$4:$A$100</definedName>
-    <definedName name="ListProducers">Producers!#REF!</definedName>
-    <definedName name="ListProductGrou">ProductGroups!$A$4:$A$100</definedName>
-    <definedName name="ListProductGroupID">ProductGroups!#REF!</definedName>
-    <definedName name="ListProductGroupNames">ProductGroups!$A$4:$A$100</definedName>
-    <definedName name="ListProductGroups">ProductGroups!#REF!</definedName>
+    <definedName name="ListProducerNames">#REF!</definedName>
+    <definedName name="ListProducers">#REF!</definedName>
+    <definedName name="ListProductGrou">#REF!</definedName>
+    <definedName name="ListProductGroupID">#REF!</definedName>
+    <definedName name="ListProductGroupNames">#REF!</definedName>
+    <definedName name="ListProductGroups">#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -73,21 +71,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mã định danh của khách hàng
+          <t xml:space="preserve">Mã định danh của khách hàng
 -Để trống để hệ thống tự sinh mã khách hàng
--Tối đa 50 kí tự
--</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Là dữ liệu bắt buộc và sẽ được kiểm tra đối chiếu với dữ liệu khách hàng đã có của bạn
--Nếu mã khách hàng đã tồn tại trong hệ thống, khách hàng sẽ không được nhập liệu
-(Xin vui lòng chat với Suno qua box hỗ trợ tại https://suno.vn hoặc gọi hotline (08) 35.125.160 nếu bạn cần được tư vấn thêm.</t>
+</t>
         </r>
       </text>
     </comment>
@@ -112,17 +98,7 @@
           </rPr>
           <t xml:space="preserve">
 -Bỏ trống nếu cửa hàng chỉ bán cho khách lẻ
--Thêm thông tin "Khách sỉ", "Khách VIP" để áp dụng chính sách giá theo loại khách hàng.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+-Thêm thông tin "Khách sỉ" để ápdụng chính sách giá theo loại khách hàng.
 </t>
         </r>
       </text>
@@ -162,16 +138,6 @@
             <family val="2"/>
           </rPr>
           <t>Email có thể bỏ trống</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- Tối đa 127 kí tự</t>
         </r>
       </text>
     </comment>
@@ -278,19 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>T_Master_ProductGroups</t>
-  </si>
-  <si>
-    <t>ProducerId,ProducerName</t>
-  </si>
-  <si>
-    <t>StoreId = {{CurrentStore}} and IsActive = 1</t>
-  </si>
-  <si>
-    <t>T_Master_Producers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -316,66 +270,12 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Trần Văn Nghĩa</t>
-  </si>
-  <si>
-    <t>0967342314</t>
-  </si>
-  <si>
-    <t>tranvannghia@gmail.com</t>
-  </si>
-  <si>
-    <t>123 Điện Biên Phủ, P 17, Q  BT, HCM</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Nguyễn Phương Liên</t>
-  </si>
-  <si>
-    <t>0902343423</t>
-  </si>
-  <si>
-    <t>phuonglien78@yahoo.com</t>
-  </si>
-  <si>
-    <t>207/25 Gò Dầu, P Tân Quý, Q Tân Phú, HCM</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
-    <t>Bùi Tuyết Như</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Phượng</t>
-  </si>
-  <si>
-    <t>Lưu Văn Nam</t>
-  </si>
-  <si>
-    <t>0908753212</t>
-  </si>
-  <si>
-    <t>luuvannam@gmail.com</t>
-  </si>
-  <si>
-    <t>243/4 Trần Kế Xương, P 7, Q Phú Nhuận, HCM</t>
-  </si>
-  <si>
-    <t>Huỳnh Đức Nhân</t>
-  </si>
-  <si>
-    <t>0940023345</t>
-  </si>
-  <si>
-    <t>ducnhan.huynh@gmail.com</t>
-  </si>
-  <si>
-    <t>181/31 Nguyễn Hồng Đào, P 14, Q Tân Bình, HCM</t>
-  </si>
-  <si>
     <t>Là khách sỉ?</t>
   </si>
   <si>
@@ -385,10 +285,34 @@
     <t>Có</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Khách sỉ</t>
+    <t>0901233568</t>
+  </si>
+  <si>
+    <t>0984562586</t>
+  </si>
+  <si>
+    <t>0933252652</t>
+  </si>
+  <si>
+    <t>vantran@gmail.com</t>
+  </si>
+  <si>
+    <t>phuongquyen@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quyên</t>
+  </si>
+  <si>
+    <t>Trần Lê Văn</t>
+  </si>
+  <si>
+    <t>Trần Thúy Loan</t>
+  </si>
+  <si>
+    <t>loantran@yahoo.com</t>
+  </si>
+  <si>
+    <t>10/7 Trường Chinh, P.5, Q  BT, HCM</t>
   </si>
 </sst>
 </file>
@@ -399,21 +323,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,6 +348,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -449,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,27 +387,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,10 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,8 +713,9 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.7109375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
@@ -803,250 +724,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6">
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
         <v>29932</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
         <v>28513</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6">
-        <v>31839</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6">
-        <v>33396</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D998">
       <formula1>ListProducerNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1001 J2:K1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K998">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1001">
-      <formula1>"0,5,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C998">
       <formula1>ListProductGroupNames</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" display="tranvannghia@gmail.com"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3" display="namnhanhuynh@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" hidden="1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" hidden="1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" hidden="1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" hidden="1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>